--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8632_StringRanges_in_SmartRules.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-8632_StringRanges_in_SmartRules.xlsx
@@ -565,68 +565,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="F36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" s="4"/>
-      <c r="I36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="2">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C39" s="2">
-        <v>2</v>
-      </c>
-    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>18</v>
@@ -707,100 +649,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B46" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B47" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="2">
-        <v>3</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J49" s="2">
-        <v>4</v>
-      </c>
-    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I36:J36"/>
     <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F46:G46"/>
     <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I46:J46"/>
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B46:C46"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F36:G36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
